--- a/SIDERITE_contribution_template.xlsx
+++ b/SIDERITE_contribution_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\课题组\zhiyuan_Lab\10-Database_resource\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8B28282-F815-4587-A521-672393B8CFAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFF40BB-42E3-4A40-89DE-F4440840816D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13332" xr2:uid="{66F5A344-18B5-49D5-A4F1-960D8BF96CC9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14472" windowHeight="7896" xr2:uid="{66F5A344-18B5-49D5-A4F1-960D8BF96CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Species</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>References</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -54,18 +50,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Explanation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The main name of siderophore reported in the literature.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>If this siderophore has alternative name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The producer of this siderophore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -74,10 +58,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">The common types are NRPS, NIS, PKS or hybrid. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The reference reported the biosynthetic type of this siderophore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,16 +66,90 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Your name will be recorded in this siderophore page for contribution</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example:</t>
+    <t>Enterobactin</t>
+  </si>
+  <si>
+    <t>Enterochelin</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>SIDERITE team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1cc(c(c(c1)O)O)C(=O)N[C@H]2COC(=O)[C@H](COC(=O)[C@H](COC2=O)NC(=O)c3cccc(c3O)O)NC(=O)c4cccc(c4O)O</t>
+  </si>
+  <si>
+    <t>NRPS</t>
+  </si>
+  <si>
+    <t>T. E. Clarke, V. Braun, G. Winkelmann, L. W. Tari, H. J. Vogel, "X-ray Crystallographic Structures of the Escherichia coli Periplasmic Protein FhuD Bound to Hydroxamate-type Siderophores and the Antibiotic Albomycin", Journal of Biological Chemistry, 2002, 277, 13966-13972; I. G. O'Brien, F. Gibson, "The structure of enterochelin and related 2,3-dihydroxy-N-benzoyne conjugates from Eschericha Coli", Biochimica et Biophysica Acta - General Subjects, 1970, 215(2), 393-402; Moriah Sandy, Andrew Han, John Blunt, Murray Munro, Margo Haygood, Alison Butler, "Vanchrobactin and Anguibactin Siderophores Produced by Vibrio sp. DS40M4", Journal of Natural Products, 2010, 73(6), 1038-1043; Manjula A Vagrali, "Siderophore production by uropathogenic Escherichia coli", Indian Journal of Pathology &amp; Microbiology, 2009, 52(1), 126-127; A. A. Miles, P. L. Khimji, "Enterobacterial chelators of iron: their occurrence, detection, and relation to pathogenicity", Journal of Medical Microbiology, 1975, 8(4), 477-490; S. K. Guterman, L. Dann, "Excretion of Enterochelin by exbA and exbB Mutants of Escherichia coli", Journal of Bacteriology, 1973, 114(3), 1225-1230; Lars Robbel, Thomas A. Knappe, Uwe Linne, Xiulan Xie, Mohamed A. Marahiel, "Erythrochelin – a hydroxamate-type siderophore predicted from the genome of Saccharopolyspora erythraea", FEBS Journal, 2010, 277(3), 663-676; Amy M. Gehring, Kenneth A. Bradley, Christopher T. Walsh, "Enterobactin Biosynthesis in Escherichia coli: Isochorismate Lyase (EntB) Is a Bifunctional Enzyme That Is Phosphopantetheinylated by EntD and Then Acylated by EntE Using ATP and 2,3-Dihydroxybenzoate", Biochemistry, 1997, 36(28), 8495-8503; B. A. Memon, "Detection of Siderophores by Thin Layer Chromatography", Journal of the Chemical Society of Pakistan, 2005, 27(6), 658-661; Timo Schmiederer, Saskia Rausch, Marianne Valdebenito, Yogita Mantri, Eva Mösker, Todor Baramov, Kamil Stelmaszyk, Peter Schmieder, Diane Butz, Silke I. Müller, Kathrin Schneider, Mu-Hyun Baik, Klaus Hantke, Roderich D. Süssmuth, "The E. coli Siderophores Enterobactin and Salmochelin Form Six- Coordinate Silicon Complexes at Physiological pH", Angewandte Chemie International Edition, 2011, 50, 4230-4233; Anthony D’Onofrio, Jason M. Crawford, Eric J. Stewart, Kathrin Witt, Ekaterina Gavrish, Slava Epstein, Jon Clardy, Kim Lewis, "Siderophores from Neighboring Organisms Promote the Growth of Uncultured Bacteria", Chemistry &amp; Biology, 2010, 17(3), 254-264; Amélie Garénaux, Mélissa Caza, Charles M. Dozois, "The Ins and Outs of siderophore mediated iron uptake by extra-intestinal pathogenic Escherichia coli", Veterinary Microbiology, 2011, 153(1), 89-98</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manjula A Vagrali, "Siderophore production by uropathogenic Escherichia coli", Indian Journal of Pathology &amp; Microbiology, 2009, 52(1), 126-127</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Desferrioxamine E </t>
+  </si>
+  <si>
+    <t>C1CCNC(=O)CCC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCNC(=O)CCC(=O)N(CC1)O)O)O</t>
+  </si>
+  <si>
+    <t>T.H.M. Smits, B. Duffy, "Genomics of iron acquisition in the plant pathogen Erwinia amylovora: Insights in the biosynthetic pathway of the siderophore desferrioxamine E", Archives of Microbiology,2011, 193(10), 693-699</t>
+  </si>
+  <si>
+    <t>Salmonella enterica</t>
+  </si>
+  <si>
+    <t>Moriah Sandy, Andrew Han, John Blunt, Murray Munro, Margo Haygood, Alison Butler, "Vanchrobactin and Anguibactin Siderophores Produced by Vibrio sp. DS40M4", Journal of Natural Products, 2010, 73(6), 1038-1043; Amélie Garénaux, Mélissa Caza, Charles M. Dozois, "The Ins and Outs of siderophore mediated iron uptake by extra-intestinal pathogenic Escherichia coli", Veterinary Microbiology, 2011, 153(1), 89-98; Bojan Bister, Daniel Bischoff, Graeme J. Nicholson, Marianne Valdebenito, Kathrin Schneider, Günther Winkelmann, Klaus Hantke, Roderich D. Süssmuth, "The structure of salmochelins: C-glucosylated enterobactins of Salmonella enterica", BioMetals, 2004, 17(4), 471-481; Maud E. S. Achard, Kaiwen W. Chen, Matthew J. Sweet, Rebecca E. Watts, Kate Schroder, Mark A. Schembri, Alastair G. McEwan, "An antioxidant role for catecholate siderophores in Salmonella", Biochemical Journal, 2013, 454, 543-549</t>
+  </si>
+  <si>
+    <t>Example 1:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example 2:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example 3:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your name will be recorded on the related siderophore page for your contribution.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The common name of the siderophore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If this siderophore has alternative names</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The reference paper reported this siderophore. (If there are more than one papers, please use "; " as delimiter)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Biosynthetic pathways, such as the NRPS, NIS, PKS or hybrid. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explanations of the field</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Header (</t>
+      <t>Field (</t>
     </r>
     <r>
       <rPr>
@@ -107,7 +161,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Red is required</t>
+      <t>Red is required filed</t>
     </r>
     <r>
       <rPr>
@@ -123,66 +177,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>Enterobactin</t>
-  </si>
-  <si>
-    <t>Enterochelin</t>
-  </si>
-  <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>SIDERITE team</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The reference paper reported this siderophore. (At least one paper. If more than one, please use "; " as delimiter)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1cc(c(c(c1)O)O)C(=O)N[C@H]2COC(=O)[C@H](COC(=O)[C@H](COC2=O)NC(=O)c3cccc(c3O)O)NC(=O)c4cccc(c4O)O</t>
-  </si>
-  <si>
-    <t>NRPS</t>
-  </si>
-  <si>
-    <t>T. E. Clarke, V. Braun, G. Winkelmann, L. W. Tari, H. J. Vogel, "X-ray Crystallographic Structures of the Escherichia coli Periplasmic Protein FhuD Bound to Hydroxamate-type Siderophores and the Antibiotic Albomycin", Journal of Biological Chemistry, 2002, 277, 13966-13972; I. G. O'Brien, F. Gibson, "The structure of enterochelin and related 2,3-dihydroxy-N-benzoyne conjugates from Eschericha Coli", Biochimica et Biophysica Acta - General Subjects, 1970, 215(2), 393-402; Moriah Sandy, Andrew Han, John Blunt, Murray Munro, Margo Haygood, Alison Butler, "Vanchrobactin and Anguibactin Siderophores Produced by Vibrio sp. DS40M4", Journal of Natural Products, 2010, 73(6), 1038-1043; Manjula A Vagrali, "Siderophore production by uropathogenic Escherichia coli", Indian Journal of Pathology &amp; Microbiology, 2009, 52(1), 126-127; A. A. Miles, P. L. Khimji, "Enterobacterial chelators of iron: their occurrence, detection, and relation to pathogenicity", Journal of Medical Microbiology, 1975, 8(4), 477-490; S. K. Guterman, L. Dann, "Excretion of Enterochelin by exbA and exbB Mutants of Escherichia coli", Journal of Bacteriology, 1973, 114(3), 1225-1230; Lars Robbel, Thomas A. Knappe, Uwe Linne, Xiulan Xie, Mohamed A. Marahiel, "Erythrochelin – a hydroxamate-type siderophore predicted from the genome of Saccharopolyspora erythraea", FEBS Journal, 2010, 277(3), 663-676; Amy M. Gehring, Kenneth A. Bradley, Christopher T. Walsh, "Enterobactin Biosynthesis in Escherichia coli: Isochorismate Lyase (EntB) Is a Bifunctional Enzyme That Is Phosphopantetheinylated by EntD and Then Acylated by EntE Using ATP and 2,3-Dihydroxybenzoate", Biochemistry, 1997, 36(28), 8495-8503; B. A. Memon, "Detection of Siderophores by Thin Layer Chromatography", Journal of the Chemical Society of Pakistan, 2005, 27(6), 658-661; Timo Schmiederer, Saskia Rausch, Marianne Valdebenito, Yogita Mantri, Eva Mösker, Todor Baramov, Kamil Stelmaszyk, Peter Schmieder, Diane Butz, Silke I. Müller, Kathrin Schneider, Mu-Hyun Baik, Klaus Hantke, Roderich D. Süssmuth, "The E. coli Siderophores Enterobactin and Salmochelin Form Six- Coordinate Silicon Complexes at Physiological pH", Angewandte Chemie International Edition, 2011, 50, 4230-4233; Anthony D’Onofrio, Jason M. Crawford, Eric J. Stewart, Kathrin Witt, Ekaterina Gavrish, Slava Epstein, Jon Clardy, Kim Lewis, "Siderophores from Neighboring Organisms Promote the Growth of Uncultured Bacteria", Chemistry &amp; Biology, 2010, 17(3), 254-264; Amélie Garénaux, Mélissa Caza, Charles M. Dozois, "The Ins and Outs of siderophore mediated iron uptake by extra-intestinal pathogenic Escherichia coli", Veterinary Microbiology, 2011, 153(1), 89-98</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manjula A Vagrali, "Siderophore production by uropathogenic Escherichia coli", Indian Journal of Pathology &amp; Microbiology, 2009, 52(1), 126-127</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desferrioxamine E </t>
-  </si>
-  <si>
-    <t>C1CCNC(=O)CCC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCNC(=O)CCC(=O)N(CC1)O)O)O</t>
-  </si>
-  <si>
-    <t>T.H.M. Smits, B. Duffy, "Genomics of iron acquisition in the plant pathogen Erwinia amylovora: Insights in the biosynthetic pathway of the siderophore desferrioxamine E", Archives of Microbiology,2011, 193(10), 693-699</t>
-  </si>
-  <si>
-    <t>The simplest example:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please type your record from this row:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Salmonella enterica</t>
-  </si>
-  <si>
-    <t>Moriah Sandy, Andrew Han, John Blunt, Murray Munro, Margo Haygood, Alison Butler, "Vanchrobactin and Anguibactin Siderophores Produced by Vibrio sp. DS40M4", Journal of Natural Products, 2010, 73(6), 1038-1043; Amélie Garénaux, Mélissa Caza, Charles M. Dozois, "The Ins and Outs of siderophore mediated iron uptake by extra-intestinal pathogenic Escherichia coli", Veterinary Microbiology, 2011, 153(1), 89-98; Bojan Bister, Daniel Bischoff, Graeme J. Nicholson, Marianne Valdebenito, Kathrin Schneider, Günther Winkelmann, Klaus Hantke, Roderich D. Süssmuth, "The structure of salmochelins: C-glucosylated enterobactins of Salmonella enterica", BioMetals, 2004, 17(4), 471-481; Maud E. S. Achard, Kaiwen W. Chen, Matthew J. Sweet, Rebecca E. Watts, Kate Schroder, Mark A. Schembri, Alastair G. McEwan, "An antioxidant role for catecholate siderophores in Salmonella", Biochemical Journal, 2013, 454, 543-549</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,13 +231,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -254,26 +273,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -299,6 +306,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,156 +640,164 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.6640625" customWidth="1"/>
     <col min="7" max="7" width="48.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
     <col min="9" max="9" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>26</v>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>28</v>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
+      <c r="A6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
